--- a/data/output/set12/high_noisy_50/results/dual.xlsx
+++ b/data/output/set12/high_noisy_50/results/dual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\GaussianExperiments\data\output\set12\high_noisy_50\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F981663-7E5D-4FF2-96B4-684509D38F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6AC43E0-1359-4848-BCB6-F2431C1442FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>06.png</t>
   </si>
@@ -65,102 +65,6 @@
   </si>
   <si>
     <t>Score</t>
-  </si>
-  <si>
-    <t>15.45</t>
-  </si>
-  <si>
-    <t>0.1683</t>
-  </si>
-  <si>
-    <t>16.14</t>
-  </si>
-  <si>
-    <t>15.25</t>
-  </si>
-  <si>
-    <t>0.1496</t>
-  </si>
-  <si>
-    <t>15.11</t>
-  </si>
-  <si>
-    <t>15.07</t>
-  </si>
-  <si>
-    <t>0.1285</t>
-  </si>
-  <si>
-    <t>13.96</t>
-  </si>
-  <si>
-    <t>0.1914</t>
-  </si>
-  <si>
-    <t>17.11</t>
-  </si>
-  <si>
-    <t>15.21</t>
-  </si>
-  <si>
-    <t>0.1819</t>
-  </si>
-  <si>
-    <t>16.70</t>
-  </si>
-  <si>
-    <t>15.22</t>
-  </si>
-  <si>
-    <t>0.2493</t>
-  </si>
-  <si>
-    <t>20.08</t>
-  </si>
-  <si>
-    <t>15.58</t>
-  </si>
-  <si>
-    <t>0.2233</t>
-  </si>
-  <si>
-    <t>18.95</t>
-  </si>
-  <si>
-    <t>14.91</t>
-  </si>
-  <si>
-    <t>0.0914</t>
-  </si>
-  <si>
-    <t>12.03</t>
-  </si>
-  <si>
-    <t>15.44</t>
-  </si>
-  <si>
-    <t>0.1727</t>
-  </si>
-  <si>
-    <t>16.36</t>
-  </si>
-  <si>
-    <t>15.23</t>
-  </si>
-  <si>
-    <t>0.1696</t>
-  </si>
-  <si>
-    <t>16.10</t>
-  </si>
-  <si>
-    <t>14.85</t>
-  </si>
-  <si>
-    <t>0.2006</t>
-  </si>
-  <si>
-    <t>17.45</t>
   </si>
 </sst>
 </file>
@@ -526,7 +430,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,154 +459,154 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
+      <c r="B2">
+        <v>15.2503422516503</v>
+      </c>
+      <c r="C2">
+        <v>0.14960932783464201</v>
+      </c>
+      <c r="D2">
+        <v>15.1056375175573</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
+      <c r="B3">
+        <v>14.910502642942401</v>
+      </c>
+      <c r="C3">
+        <v>9.1427814115147901E-2</v>
+      </c>
+      <c r="D3">
+        <v>12.026642027228499</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
+      <c r="B4">
+        <v>15.070097494195799</v>
+      </c>
+      <c r="C4">
+        <v>0.128488329257539</v>
+      </c>
+      <c r="D4">
+        <v>13.9594652099748</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
+      <c r="B5">
+        <v>15.2325937252452</v>
+      </c>
+      <c r="C5">
+        <v>0.169644837392775</v>
+      </c>
+      <c r="D5">
+        <v>16.0985387322614</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>28</v>
+      <c r="B6">
+        <v>15.207310177674101</v>
+      </c>
+      <c r="C6">
+        <v>0.18193010357646799</v>
+      </c>
+      <c r="D6">
+        <v>16.7001602676605</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
+      <c r="B7">
+        <v>15.4512604760295</v>
+      </c>
+      <c r="C7">
+        <v>0.16832949989302001</v>
+      </c>
+      <c r="D7">
+        <v>16.142105232665799</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" t="s">
-        <v>34</v>
+      <c r="B8">
+        <v>15.44384358271</v>
+      </c>
+      <c r="C8">
+        <v>0.17274330060533999</v>
+      </c>
+      <c r="D8">
+        <v>16.359086821622</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" t="s">
-        <v>37</v>
+      <c r="B9">
+        <v>14.8515294961508</v>
+      </c>
+      <c r="C9">
+        <v>0.20056219205713199</v>
+      </c>
+      <c r="D9">
+        <v>17.453874350932001</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
-      <c r="B10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" t="s">
-        <v>40</v>
+      <c r="B10">
+        <v>15.2218146262712</v>
+      </c>
+      <c r="C10">
+        <v>0.24931600820071301</v>
+      </c>
+      <c r="D10">
+        <v>20.0767077231713</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>3</v>
       </c>
-      <c r="B11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" t="s">
-        <v>43</v>
+      <c r="B11">
+        <v>15.0731759385783</v>
+      </c>
+      <c r="C11">
+        <v>0.1914247251193</v>
+      </c>
+      <c r="D11">
+        <v>17.107824225254099</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="B12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" t="s">
-        <v>46</v>
+      <c r="B12">
+        <v>15.580306614356999</v>
+      </c>
+      <c r="C12">
+        <v>0.22327100457638999</v>
+      </c>
+      <c r="D12">
+        <v>18.953703535997999</v>
       </c>
     </row>
   </sheetData>
